--- a/analysis/09_correlations/correlations.xlsx
+++ b/analysis/09_correlations/correlations.xlsx
@@ -132,10 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +471,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -497,16 +498,16 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>-0.04</v>
       </c>
       <c r="C2" s="2">
         <v>0.45</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-0.49</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -514,16 +515,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.23</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-0.19</v>
       </c>
     </row>
@@ -531,16 +532,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-0.43</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -548,16 +549,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-0.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.34</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>-0.77</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.68</v>
       </c>
     </row>
@@ -565,16 +566,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.09</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-0.34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.39</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-0.31</v>
       </c>
     </row>
@@ -582,16 +583,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>-0.03</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.05</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>-0.8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -599,16 +600,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-0.34</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.46</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>-0.41</v>
       </c>
     </row>
@@ -616,16 +617,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>-0.13</v>
       </c>
       <c r="C9" s="2">
         <v>0.51</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>-0.46</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -633,16 +634,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>-0.39</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>-0.04</v>
       </c>
     </row>
@@ -859,16 +860,16 @@
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0.88</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.15</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.25</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.67</v>
       </c>
     </row>
@@ -876,16 +877,16 @@
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0.54</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.44</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.54</v>
       </c>
     </row>
@@ -893,16 +894,16 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.17</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.81</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.54</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.59</v>
       </c>
     </row>
@@ -910,16 +911,16 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.18</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.02</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -927,16 +928,16 @@
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.77</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.25</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.35</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.27</v>
       </c>
     </row>
@@ -944,16 +945,16 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>0.9</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0.87</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.02</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.59</v>
       </c>
     </row>
@@ -961,16 +962,16 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>0.59</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.25</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.27</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.18</v>
       </c>
     </row>
@@ -978,16 +979,16 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>0.67</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>0.08</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.27</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -995,16 +996,16 @@
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>0.3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0.66</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0.35</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.88</v>
       </c>
     </row>
